--- a/Assigments/Assignment2/Assignment2.xlsx
+++ b/Assigments/Assignment2/Assignment2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amritanischal/Documents/Spring2024SemTwo/PSA/GitAssignments/INFO6205/Assigments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72043048-CE2F-074C-9038-7076E8A8AD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D1FC95-6028-E147-9651-0393CDBEC906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{B1D8C3E9-CDD8-AB43-B64D-5DC0AE6E9626}"/>
   </bookViews>
@@ -35,11 +35,48 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Raw time</t>
+  </si>
+  <si>
+    <t>Normalised time</t>
+  </si>
+  <si>
+    <t>3SUM-Quadrithmic</t>
+  </si>
+  <si>
+    <t>3SUM-Quadratic</t>
+  </si>
+  <si>
+    <t>3SUM-Cubic</t>
+  </si>
+  <si>
+    <t>3SUM-Quadratic(Raw time)</t>
+  </si>
+  <si>
+    <t>3SUM-Quadrithmic(Raw time)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -54,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,12 +99,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +144,1043 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8CE-A348-A787-A4CFA9DEAA5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3SUM-Quadratic(Raw time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>445.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C8CE-A348-A787-A4CFA9DEAA5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3SUM-Quadrithmic(Raw time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>245.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1151.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4970</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C8CE-A348-A787-A4CFA9DEAA5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="977133200"/>
+        <c:axId val="977106400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="977133200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="977106400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="977106400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="977133200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF9B3C1-0125-C1FF-3A72-DC23CEF11279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,12 +1480,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E03AC1-8717-534F-9246-44A1E1D0F41D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="24.83203125" customWidth="1"/>
+    <col min="15" max="15" width="26.33203125" customWidth="1"/>
+    <col min="16" max="16" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3">
+        <v>250</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>250</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E3" s="3">
+        <v>250</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="I3" s="3">
+        <v>250</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2.16</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M3" s="3">
+        <v>500</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>500</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="E4" s="3">
+        <v>500</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="I4" s="3">
+        <v>500</v>
+      </c>
+      <c r="J4" s="3">
+        <v>20.98</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.17</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2.35</v>
+      </c>
+      <c r="O4" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2.35</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.35</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="3">
+        <v>163.95</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N5" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="O5" s="3">
+        <v>50.6</v>
+      </c>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50.6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="M6" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N6" s="3">
+        <v>85</v>
+      </c>
+      <c r="O6" s="3">
+        <v>245.4</v>
+      </c>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="B7" s="3">
+        <v>245.4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>85</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5.31</v>
+      </c>
+      <c r="I7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J7" s="3">
+        <v>10125.6</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="M7" s="3">
+        <v>8000</v>
+      </c>
+      <c r="N7" s="3">
+        <v>445.33</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1151.67</v>
+      </c>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>8000</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1151.67</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>445.33</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6.96</v>
+      </c>
+      <c r="M8" s="3">
+        <v>16000</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2106</v>
+      </c>
+      <c r="O8" s="3">
+        <v>4970</v>
+      </c>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>16000</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4970</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="E9" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2106</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>